--- a/Controller.xlsx
+++ b/Controller.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web\CoreTeamDemoProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\HarshaWorks\ProjectWorkspace\Web_Trello_Framework-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCB1288-A985-4B20-BB4C-2162940808C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="4" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>SI No</t>
   </si>
@@ -115,12 +114,15 @@
   </si>
   <si>
     <t>TYSS_Trello_010</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -330,23 +332,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -382,23 +367,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -574,16 +542,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -645,10 +613,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
       <formula1>"none,tests"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3">
       <formula1>"none,chrome,firefox,edge"</formula1>
     </dataValidation>
   </dataValidations>
@@ -658,18 +626,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -696,7 +664,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -705,19 +673,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -745,7 +713,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -773,7 +741,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -787,7 +755,7 @@
         <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -801,7 +769,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -815,7 +783,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -829,7 +797,7 @@
         <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -843,7 +811,7 @@
         <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -857,7 +825,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -871,13 +839,13 @@
         <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D11" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D11">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
